--- a/TestData/K_68Bus_SG_IBR_6.xlsx
+++ b/TestData/K_68Bus_SG_IBR_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C3A69-076C-4D86-A532-8341766D4BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6959FC1D-D378-4FBA-9CA9-CB853CBD316E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3298,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3376,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -3398,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -3419,7 +3419,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -3440,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -3483,7 +3483,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -3504,7 +3504,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -3525,7 +3525,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -3546,7 +3546,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -3567,7 +3567,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -3588,7 +3588,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -3609,7 +3609,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -3630,7 +3630,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -3653,7 +3653,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -3674,7 +3674,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -3695,7 +3695,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -3716,7 +3716,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -3747,7 +3747,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -3768,7 +3768,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -3799,7 +3799,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -3820,7 +3820,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -3841,7 +3841,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -3862,7 +3862,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -3883,7 +3883,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -3904,7 +3904,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -3925,7 +3925,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -3976,7 +3976,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -3997,7 +3997,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -4018,7 +4018,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
@@ -4039,7 +4039,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -4060,7 +4060,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
@@ -4081,7 +4081,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -4102,7 +4102,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -4123,7 +4123,7 @@
         <v>10</v>
       </c>
       <c r="I42" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -4144,7 +4144,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -4165,7 +4165,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
@@ -4186,7 +4186,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -4207,7 +4207,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -4228,7 +4228,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -4249,7 +4249,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
@@ -4270,7 +4270,7 @@
         <v>10</v>
       </c>
       <c r="I49" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
@@ -4291,7 +4291,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
@@ -4312,7 +4312,7 @@
         <v>10</v>
       </c>
       <c r="I51" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
@@ -4333,7 +4333,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
@@ -4354,7 +4354,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
@@ -4377,7 +4377,7 @@
         <v>10</v>
       </c>
       <c r="I54" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
@@ -4400,7 +4400,7 @@
         <v>10</v>
       </c>
       <c r="I55" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
@@ -4435,7 +4435,7 @@
         <v>10</v>
       </c>
       <c r="I57" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
@@ -4456,7 +4456,7 @@
         <v>10</v>
       </c>
       <c r="I58" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -4497,7 +4497,7 @@
         <v>10</v>
       </c>
       <c r="I61" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
@@ -4518,7 +4518,7 @@
         <v>10</v>
       </c>
       <c r="I62" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
@@ -4539,7 +4539,7 @@
         <v>10</v>
       </c>
       <c r="I63" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
@@ -4580,7 +4580,7 @@
         <v>10</v>
       </c>
       <c r="I66" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -4621,7 +4621,7 @@
         <v>10</v>
       </c>
       <c r="I69" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -4642,7 +4642,7 @@
         <v>10</v>
       </c>
       <c r="I70" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
